--- a/medicine/Enfance/Prix_Jeunesse_des_univers_parallèles/Prix_Jeunesse_des_univers_parallèles.xlsx
+++ b/medicine/Enfance/Prix_Jeunesse_des_univers_parallèles/Prix_Jeunesse_des_univers_parallèles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Jeunesse_des_univers_parall%C3%A8les</t>
+          <t>Prix_Jeunesse_des_univers_parallèles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Jeunesse des univers parallèles, appelé jusqu'en 2007 prix Jeunesse de science-fiction et de fantastique québécois, est un prix littéraire québécois. Il couronne le meilleur roman de science-fiction, de fantasy ou de fantastique en littérature jeunesse depuis 2006. Il est attribué par la corporation Passeport pour l'imaginaire, appelée jusqu'en 2007 la corporation du grand prix de la science-fiction et du fantastique québécois.
 Les œuvres doivent être écrites par un auteur canadien, en français, et doivent être la première édition.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Jeunesse_des_univers_parall%C3%A8les</t>
+          <t>Prix_Jeunesse_des_univers_parallèles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2006 : Bryan Perro, La Cité de Pégase (tome 8 de la série fantasy Amos Daragon)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2006 : Bryan Perro, La Cité de Pégase (tome 8 de la série fantasy Amos Daragon)
 2007 : Sylvain Hotte, La Fée du lac Baïkal (tome 1 de la série Darhan)
 2008 : Michèle Gavazzi, Nessy Names et la Malédiction de Tiens
 2009 : Hervé Gagnon, Cap-aux-Esprits
@@ -526,8 +540,8 @@
 2014 : Isabelle Roy, La Tempête de Ceithir ( Tome 1 de la série Les Fées-du-phénix)
 2015 : Priska Poirier, Seconde Terre - La Fuite (tome 1 de la série Seconde Terre)
 2016 : Louis-Pier Sicard, Felix Vortan et les orphelins du roi (Tome 1 de la série Les orphelins du roi)
-2017 : Priska Poirier, Seconde Terre - La Fuite (tome 1 de la série Seconde Terre)[1]
-2018 : Valérie Harvey, Les Fleurs du Nord [2]</t>
+2017 : Priska Poirier, Seconde Terre - La Fuite (tome 1 de la série Seconde Terre)
+2018 : Valérie Harvey, Les Fleurs du Nord </t>
         </is>
       </c>
     </row>
